--- a/biology/Écologie/Solubag/Solubag.xlsx
+++ b/biology/Écologie/Solubag/Solubag.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Solubag est un matériau biodégradable pour la création de sacs non polluants[1]. 
+Solubag est un matériau biodégradable pour la création de sacs non polluants. 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le matériau est créé par deux Chiliens[2]: l’ingénieur commercial tomecino Roberto Astete Boettcher et l’avocat penquista[3] Alejandro Castro Riquelme. Ils ont fondé l'entreprise en 2015[réf. nécessaire].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le matériau est créé par deux Chiliens: l’ingénieur commercial tomecino Roberto Astete Boettcher et l’avocat penquista Alejandro Castro Riquelme. Ils ont fondé l'entreprise en 2015[réf. nécessaire].
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Solubag est un matériau conçu pour remplacer les sacs en plastique, car ils se dissolvent dans de l'eau en la gardant potable[4].  Le matériau ne contient pas de matériaux à base de pétrole[5] et est élaboré à base de calcaire[6]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Solubag est un matériau conçu pour remplacer les sacs en plastique, car ils se dissolvent dans de l'eau en la gardant potable.  Le matériau ne contient pas de matériaux à base de pétrole et est élaboré à base de calcaire. 
 </t>
         </is>
       </c>
